--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
   <si>
     <t>anchor score</t>
   </si>
@@ -94,61 +94,61 @@
     <t>risk</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>love</t>
@@ -742,7 +742,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>46</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>0.9230769230769231</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -924,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5">
         <v>0.8899082568807339</v>
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6">
         <v>0.8793103448275862</v>
@@ -1024,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7">
         <v>0.8297872340425532</v>
@@ -1074,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8">
         <v>0.825</v>
@@ -1124,7 +1124,7 @@
         <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9">
         <v>0.8141025641025641</v>
@@ -1174,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10">
         <v>0.8080808080808081</v>
@@ -1224,7 +1224,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11">
         <v>0.7952127659574468</v>
@@ -1274,7 +1274,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12">
         <v>0.7752808988764045</v>
@@ -1324,28 +1324,28 @@
         <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.7709251101321586</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L13">
         <v>175</v>
       </c>
       <c r="M13">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1374,28 +1374,28 @@
         <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.7006172839506173</v>
+        <v>0.6996466431095406</v>
       </c>
       <c r="L14">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="M14">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="N14">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O14">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1427,13 +1427,13 @@
         <v>42</v>
       </c>
       <c r="K15">
-        <v>0.6996466431095406</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="L15">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="N15">
         <v>0.9399999999999999</v>
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1477,25 +1477,25 @@
         <v>43</v>
       </c>
       <c r="K16">
-        <v>0.6865671641791045</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1527,25 +1527,25 @@
         <v>44</v>
       </c>
       <c r="K17">
-        <v>0.6705882352941176</v>
+        <v>0.6676470588235294</v>
       </c>
       <c r="L17">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M17">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1703,25 +1703,25 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1415929203539823</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E21">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F21">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>97</v>
+        <v>644</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>48</v>
@@ -1753,25 +1753,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.02127659574468085</v>
+        <v>0.01038062283737024</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>257</v>
+        <v>427</v>
       </c>
       <c r="E22">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F22">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>644</v>
+        <v>1716</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>49</v>
@@ -1803,13 +1803,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01038062283737024</v>
+        <v>0.008261211644374508</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>427</v>
+        <v>586</v>
       </c>
       <c r="E23">
         <v>0.96</v>
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1716</v>
+        <v>2521</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>50</v>
@@ -1849,30 +1849,6 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.008261211644374508</v>
-      </c>
-      <c r="C24">
-        <v>21</v>
-      </c>
-      <c r="D24">
-        <v>586</v>
-      </c>
-      <c r="E24">
-        <v>0.96</v>
-      </c>
-      <c r="F24">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2521</v>
-      </c>
       <c r="J24" s="1" t="s">
         <v>51</v>
       </c>
@@ -2680,7 +2656,7 @@
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K55">
         <v>0.2739571589627959</v>
@@ -3200,7 +3176,7 @@
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K75">
         <v>0.1924705882352941</v>
@@ -3330,7 +3306,7 @@
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K80">
         <v>0.1830848995463383</v>
